--- a/parameters/Params_Explained.xlsx
+++ b/parameters/Params_Explained.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wolfgang\Documents\GitHub\ESP32_DroneShow\FlashingTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46B8713-B09F-497B-80C6-B4457628E94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D2B045-C7B9-4E8E-B319-396750B2346B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="1110" windowWidth="43620" windowHeight="20685" xr2:uid="{4D249AAB-5C72-4B34-908A-312594F73C17}"/>
+    <workbookView xWindow="27720" yWindow="4050" windowWidth="43620" windowHeight="20685" xr2:uid="{4D249AAB-5C72-4B34-908A-312594F73C17}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="122">
   <si>
     <t>key</t>
   </si>
@@ -95,15 +95,9 @@
     <t>1 means 802.11b/g/n/ac/ax support - 0 to only use 802.11b</t>
   </si>
   <si>
-    <t>ant_use_ext</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>Not used - External Antenna could be enabled by RF switch</t>
-  </si>
-  <si>
     <t>baud</t>
   </si>
   <si>
@@ -390,6 +384,24 @@
   </si>
   <si>
     <t>Manually specified MAVLink System ID used by the ESP32 for as long as the FC has not sent its SYS ID. This parameter will be ignored in case show_en_syid_ip is set to "1"</t>
+  </si>
+  <si>
+    <t>radio_ant_sw</t>
+  </si>
+  <si>
+    <t>GPIO pin connected to external antenna switch (optional, set to 0 if unconnected)</t>
+  </si>
+  <si>
+    <t>0=default antenna, 1=external secondary antenna (external antenna switch required), 2=antenna diversity</t>
+  </si>
+  <si>
+    <t>radio_ant_selec</t>
+  </si>
+  <si>
+    <t>radio_ant_en</t>
+  </si>
+  <si>
+    <t>GPIO to enable external antenna switch circuit by pull in GPIO to 0. Set to 0 if no such thing is needed</t>
   </si>
 </sst>
 </file>
@@ -771,17 +783,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4DF380-F5C5-4DF8-9256-C2AA6CF5624C}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="73" customWidth="1"/>
+    <col min="5" max="5" width="94.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -871,75 +883,75 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -948,15 +960,15 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -965,83 +977,83 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -1053,12 +1065,12 @@
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -1067,32 +1079,32 @@
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1104,12 +1116,12 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1118,32 +1130,32 @@
         <v>10</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
         <v>58</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1155,29 +1167,29 @@
         <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
         <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -1189,29 +1201,29 @@
         <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
         <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
@@ -1223,12 +1235,12 @@
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1240,29 +1252,29 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
         <v>75</v>
-      </c>
-      <c r="B28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
@@ -1271,32 +1283,32 @@
         <v>10</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -1305,15 +1317,15 @@
         <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
@@ -1325,12 +1337,12 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1342,177 +1354,211 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>87</v>
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
         <v>86</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E39" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" t="s">
         <v>111</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
